--- a/LeetCode Patterns.xlsx
+++ b/LeetCode Patterns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FF4FE0-2DBB-4272-9604-F55C6B8E31B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4B5FA8-D124-44E8-885C-AFDA69E321E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80F154F4-7C35-4862-9AF5-9B57CF36335A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12816" xr2:uid="{80F154F4-7C35-4862-9AF5-9B57CF36335A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Problem Name</t>
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Recursion</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +82,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,9 +121,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,19 +465,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DAD195-57F7-49DF-97B3-D78BE6D690DE}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +486,45 @@
       </c>
       <c r="C1" s="1"/>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{78C8DB5F-73C0-41DE-9001-980ED8A9E249}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F39DC1B9-C6B1-4900-9A1D-89D2A5C1A1FB}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{1418D058-D2A9-491A-A14E-241B640130B3}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{0B7B67BF-7C90-467E-BA1D-174682A497D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>